--- a/bottom.xlsx
+++ b/bottom.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My Company\document control\out\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My Company\document control\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78C82DCC-EB2C-49BA-9A9A-90B62BCDDE78}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC41D28F-BB40-4EF6-B626-EC59804E58F0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11925" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,9 +37,6 @@
     <t>Подготовил</t>
   </si>
   <si>
-    <t>А.И. Сметанкин, 96-68</t>
-  </si>
-  <si>
     <t>___________</t>
   </si>
   <si>
@@ -47,6 +44,9 @@
   </si>
   <si>
     <t>Ф.И.О., тел.</t>
+  </si>
+  <si>
+    <t>А.И. Сметанкин, 96-68</t>
   </si>
 </sst>
 </file>
@@ -128,7 +128,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -157,23 +156,24 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -481,7 +481,7 @@
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -494,80 +494,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="4"/>
-      <c r="B1" s="17" t="s">
+      <c r="A1" s="3"/>
+      <c r="B1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="10" t="s">
+      <c r="C1" s="13"/>
+      <c r="D1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="D2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="10"/>
+      <c r="F2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="8"/>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="16"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="D2" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="11"/>
-      <c r="F2" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="9"/>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="9"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
@@ -804,13 +804,13 @@
       <c r="G34" s="1"/>
     </row>
     <row r="35" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="9"/>
+      <c r="A35" s="3"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="5">
